--- a/biology/Zoologie/Hoplodactylus_duvaucelii/Hoplodactylus_duvaucelii.xlsx
+++ b/biology/Zoologie/Hoplodactylus_duvaucelii/Hoplodactylus_duvaucelii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hoplodactylus duvaucelii est une espèce de gecko de la famille des Diplodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoplodactylus duvaucelii est une espèce de gecko de la famille des Diplodactylidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande[1]. Elle se rencontre dans les îles du Détroit de Cook ainsi que celles au large de la côte est de l'Île du Nord[2].
-On considérait qu'elle avait disparu de l'Île du Nord et de l'Île du Sud du fait de l'introduction en Nouvelle-Zélande de mammifères exogènes, mais la découverte d'un spécimen mâle adulte à Maungatautari dans la région de Waikato en 2010 a remis en cause cette croyance[3], la précédente observation d'un individu sur l'Île du Nord remontait aux années 1920.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande. Elle se rencontre dans les îles du Détroit de Cook ainsi que celles au large de la côte est de l'Île du Nord.
+On considérait qu'elle avait disparu de l'Île du Nord et de l'Île du Sud du fait de l'introduction en Nouvelle-Zélande de mammifères exogènes, mais la découverte d'un spécimen mâle adulte à Maungatautari dans la région de Waikato en 2010 a remis en cause cette croyance, la précédente observation d'un individu sur l'Île du Nord remontait aux années 1920.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce gecko vivipare mesure jusqu'à 160 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce gecko vivipare mesure jusqu'à 160 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste français Alfred Duvaucel (1793-1824)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste français Alfred Duvaucel (1793-1824).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1836 : Erpetologie Générale ou Histoire Naturelle Complete des Reptiles. Librairie Encyclopédique Roret, Paris, vol. 3, p. 1-517 (texte intégral).</t>
         </is>
